--- a/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5500,7 +5501,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -5516,6 +5516,2796 @@
       </c>
       <c r="H70" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4326</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2380</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5713</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4219</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3666</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3625</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1661</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0507</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0050</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9032</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6253</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5930</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3765</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8311,4 +8312,2338 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.6820</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7537</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0503</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7446</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004576</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新华恒益量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10646,4 +10647,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10655,7 +10656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10666,17 +10667,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10686,14 +10707,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.81</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -10702,14 +10745,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.77</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -10718,14 +10783,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.68</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -10734,13 +10821,2695 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4202</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3907</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2050</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7475</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6749</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3281</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>62</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13408,7 +13409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13419,17 +13420,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13439,14 +13460,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.54</v>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -13455,14 +13498,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.81</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -13471,14 +13536,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>72</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.77</v>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -13487,14 +13574,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>69</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.68</v>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9970</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -13503,13 +13612,1991 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3616</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>69</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>62</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15479,7 +15480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15490,17 +15491,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15510,14 +15531,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.54</v>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1359</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -15526,14 +15569,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.54</v>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -15542,14 +15607,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.81</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -15558,14 +15645,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.77</v>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -15574,14 +15683,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>69</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.68</v>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -15590,13 +15721,2347 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6643</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>72</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>69</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>62</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.71</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>14.97</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>11.54</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>25.54</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>28.81</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>32.77</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>18.68</v>
+        <v>32.77</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>62</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.71</v>
       </c>
     </row>
@@ -600,6 +617,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6511</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015667</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3047,7 +4448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5117,7 +6518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7869,7 +9270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10203,7 +11604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12993,7 +14394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15664,7 +17065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603444-吉比特.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>6.86</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>14.97</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>11.54</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>25.54</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>28.81</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>32.77</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" t="n">
-        <v>18.68</v>
+        <v>32.77</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2436 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>69</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>62</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5561</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4358</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>33.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002263</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003554</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3040,2528 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5193</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3936</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7517</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6708</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6566</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6527</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015667</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015692</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015690</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015715</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>017462</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2000,7 +6945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4448,7 +9393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6518,7 +11463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9270,7 +14215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11604,7 +16549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14394,7 +19339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17063,2410 +22008,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>180031</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>76.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.1658</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001178</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源再融资主题精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2668</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008188</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源稳健增长三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>58.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7786</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>470028</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富社会责任混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8518</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512980</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8472</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>56.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5698</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>200006</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城消费增值混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5581</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501083</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>19.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>49.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5561</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4358</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4036</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2870</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001726</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富新兴消费股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2668</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008671</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华科技创新混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2524</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2460</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>512330</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方中证500信息技术指数ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>99.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2438</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>320001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺安平衡混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>13.10</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>69.03</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2214</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005970</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰消费优选股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1948</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001541</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇添富民营新动力股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.56</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1916</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001816</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1804</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>79.79</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1792</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>44.60</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1720</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1554</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1546</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>671010</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1418</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>630009</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>17.24</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1103</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001017</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1018</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>159805</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>95.42</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0956</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>162205</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰达宏利风险预算混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>33.07</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0934</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0808</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005825</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>申万菱信智能驱动股票</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0769</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0708</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002164</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0524</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005381</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001808</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>银华互联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>630109</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009613</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0383</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0260</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>69.68</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>001628</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>招商体育文化休闲股票</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002263</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>164818</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>003554</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>009614</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>005382</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>011060</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>006195</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>国金量化多因子股票</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>88.76</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>003550</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>